--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value509.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value509.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.412732762022284</v>
+        <v>1.23145318031311</v>
       </c>
       <c r="B1">
-        <v>2.662057259804245</v>
+        <v>2.502643346786499</v>
       </c>
       <c r="C1">
-        <v>2.921701414097802</v>
+        <v>4.336839199066162</v>
       </c>
       <c r="D1">
-        <v>1.144213895759226</v>
+        <v>2.54498291015625</v>
       </c>
       <c r="E1">
-        <v>0.68939940379399</v>
+        <v>1.078810214996338</v>
       </c>
     </row>
   </sheetData>
